--- a/configs/global_config_ferrite_n100.xlsx
+++ b/configs/global_config_ferrite_n100.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>SLURM_iteration</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>optimizerName</t>
+  </si>
+  <si>
+    <t>deviationPercent</t>
   </si>
   <si>
     <t>one_node_small</t>
@@ -483,7 +486,7 @@
     <col min="6" max="6" style="12" width="20.862142857142857" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="12" width="17.433571428571426" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="12" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="18.433571428571426" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -514,14 +517,16 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6">
         <v>30</v>
@@ -530,21 +535,23 @@
         <v>10000</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="I2" s="6">
+        <v>3</v>
+      </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -558,7 +565,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -567,15 +574,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="6"/>
@@ -587,15 +594,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="6"/>
@@ -607,7 +614,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -637,7 +644,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -653,7 +660,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -669,7 +676,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>

--- a/configs/global_config_ferrite_n100.xlsx
+++ b/configs/global_config_ferrite_n100.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>SLURM_iteration</t>
   </si>
@@ -40,7 +40,10 @@
     <t>optimizerName</t>
   </si>
   <si>
-    <t>deviationPercent</t>
+    <t>deviationPercentX</t>
+  </si>
+  <si>
+    <t>deviationPercentY</t>
   </si>
   <si>
     <t>one_node_small</t>
@@ -132,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -155,6 +158,9 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -169,6 +175,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,18 +487,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="23.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="23.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="13" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="14" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33" customFormat="1" s="1">
@@ -517,16 +526,18 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6">
         <v>30</v>
@@ -535,24 +546,26 @@
         <v>10000</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="6">
         <v>3</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="6">
+        <v>3</v>
+      </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
@@ -565,56 +578,56 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="I3" s="8"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="5"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -623,7 +636,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
+      <c r="I6" s="8"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -637,195 +650,195 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="5"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="5"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="5"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="5"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="5"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="5"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="5"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="5"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="5"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="5"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="5"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="5"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="5"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="5"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="5"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="5"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="5"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="5"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="5"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
